--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_54.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_54.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,220 +488,228 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['A:min', 'D:min/A', 'A:min'], ['A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(0.28, 103.4)]</t>
+          <t>[['F:min/G#', 'A#:min', 'F:min/G#'], ['F:min/C', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.28, 102.52)]</t>
+          <t>[('0:00:28.140000', '0:00:36.100000'), ('0:01:23.100000', '0:01:30.020000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:01:37.760000', '0:01:49.380000'), ('0:00:43.680000', '0:00:45.800000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02)]</t>
+          <t>[('0:01:40.240000', '0:01:42.380000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:25.260000', '0:00:52.580000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1229096989966555</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'G#:min/B', 'C#:maj']]</t>
-        </is>
+          <t>isophonics_57</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4526315789473684</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:min', 'F#:min', 'B']]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(6.46, 10.0)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(39.979523, 47.885918)]</t>
+          <t>[('0:02:15.687550', '0:02:19.228594')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
-        </is>
-      </c>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.08760545100584036</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E', 'E/2']]</t>
-        </is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G#:min/B', 'C#:maj', 'C#:maj/G#']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(59.162887, 65.559465)]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(8.62, 10.72)]</t>
+          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+          <t>[('0:00:08.260000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(1.92, 5.28)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(40.08, 42.28)]</t>
+          <t>[('0:01:15.560000', '0:01:35.680000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -704,499 +717,477 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74)]</t>
+          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[('0:00:08.180000', '0:00:14.180000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:01.680000', '0:00:05.300000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56)]</t>
+          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[('0:00:12.020000', '0:00:25.140000'), ('0:00:49.080000', '0:00:57.840000'), ('0:00:01.440000', '0:00:06.840000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:36.180000', '0:00:37.980000'), ('0:00:35.880000', '0:00:37.420000'), ('0:00:09.100000', '0:00:13.860000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(8.34, 26.4)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(5.78, 21.0)]</t>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(7.76, 15.8)]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(19.36, 22.38)]</t>
+          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:41.380000', '0:00:43.340000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:min/G#', 'A#:min', 'F:min/G#'], ['F:min/C', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(97.76, 109.38), (43.68, 45.8)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(25.48, 32.76), (74.8, 81.06)]</t>
+          <t>[('0:00:22.360000', '0:00:25.240000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:01.440000', '0:01:04.220000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(10.24, 21.02)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[('0:00:57.520000', '0:01:03.420000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:00.320000', '0:01:06.700000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07307692307692308</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>isophonics_231</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4004237288135593</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['C', 'G', 'D'], ['D/5', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(16.02, 22.5)]</t>
+          <t>[['C', 'G', 'D'], ['D', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(32.920657, 39.410634)]</t>
+          <t>[('0:00:09.236303', '0:00:12.162018'), ('0:00:38.435396', '0:00:43.311587')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:03.117845', '0:00:14.158934'), ('0:00:11.337709', '0:00:19.847823')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02), (0.22, 3.44)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42), (25.48, 32.8)]</t>
+          <t>[('0:00:01.640000', '0:00:23.800000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>[('0:00:00.500000', '0:00:23.020000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(36.18, 37.98), (35.88, 37.42), (9.1, 13.86)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(12.02, 25.14), (49.08, 57.84), (1.44, 6.84)]</t>
+          <t>[('0:00:00.700000', '0:00:21.420000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.560000', '0:00:25.400000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(8.2, 30.68)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(44.82, 60.84)]</t>
+          <t>[('0:01:26.980000', '0:01:51.200000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:27.440000', '0:01:50.440000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07542426147077311</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(1.129708, 6.12526)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.82, 6.76)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
